--- a/manuscript/Figures_&_tables/Supplementary Table 5 Model averaging.xlsx
+++ b/manuscript/Figures_&_tables/Supplementary Table 5 Model averaging.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\montazeaud\Documents\RECHERCHE\Postdoc\Montpellier\SolACE 3\SolACE_wheat_mixtures\manuscript\Figures_&amp;_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99774AB-350B-4E2D-933C-FA1A8210172A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1094,12 +1095,6 @@
     <t>Total biomass RYT - S Treatment</t>
   </si>
   <si>
-    <t>Root_surface_diff</t>
-  </si>
-  <si>
-    <t>Root_surface_avg</t>
-  </si>
-  <si>
     <t>#_leaves_avg</t>
   </si>
   <si>
@@ -1122,12 +1117,18 @@
   </si>
   <si>
     <t>leaf_N_diff</t>
+  </si>
+  <si>
+    <t>Root_proj_area_diff</t>
+  </si>
+  <si>
+    <t>Root_proj_area_avg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1458,11 +1459,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,7 +1480,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1503,22 +1504,22 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F5" t="s">
+        <v>358</v>
+      </c>
+      <c r="G5" t="s">
         <v>356</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
+        <v>362</v>
+      </c>
+      <c r="I5" t="s">
         <v>357</v>
-      </c>
-      <c r="F5" t="s">
-        <v>360</v>
-      </c>
-      <c r="G5" t="s">
-        <v>358</v>
-      </c>
-      <c r="H5" t="s">
-        <v>364</v>
-      </c>
-      <c r="I5" t="s">
-        <v>359</v>
       </c>
       <c r="J5" t="s">
         <v>2</v>
@@ -1860,28 +1861,28 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F19" t="s">
+        <v>359</v>
+      </c>
+      <c r="G19" t="s">
+        <v>356</v>
+      </c>
+      <c r="H19" t="s">
+        <v>364</v>
+      </c>
+      <c r="I19" t="s">
+        <v>362</v>
+      </c>
+      <c r="J19" t="s">
+        <v>363</v>
+      </c>
+      <c r="K19" t="s">
         <v>360</v>
-      </c>
-      <c r="F19" t="s">
-        <v>361</v>
-      </c>
-      <c r="G19" t="s">
-        <v>358</v>
-      </c>
-      <c r="H19" t="s">
-        <v>356</v>
-      </c>
-      <c r="I19" t="s">
-        <v>364</v>
-      </c>
-      <c r="J19" t="s">
-        <v>365</v>
-      </c>
-      <c r="K19" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2250,25 +2251,25 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E32" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F32" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G32" t="s">
         <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="I32" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J32" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2607,31 +2608,31 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E45" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F45" t="s">
         <v>2</v>
       </c>
       <c r="G45" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H45" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I45" t="s">
+        <v>362</v>
+      </c>
+      <c r="J45" t="s">
         <v>364</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>356</v>
       </c>
-      <c r="K45" t="s">
-        <v>358</v>
-      </c>
       <c r="L45" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -3030,25 +3031,25 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
+        <v>364</v>
+      </c>
+      <c r="E58" t="s">
+        <v>365</v>
+      </c>
+      <c r="F58" t="s">
         <v>356</v>
       </c>
-      <c r="E58" t="s">
-        <v>357</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>358</v>
-      </c>
-      <c r="G58" t="s">
-        <v>360</v>
       </c>
       <c r="H58" t="s">
         <v>2</v>
       </c>
       <c r="I58" t="s">
+        <v>360</v>
+      </c>
+      <c r="J58" t="s">
         <v>362</v>
-      </c>
-      <c r="J58" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -3387,25 +3388,25 @@
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E71" t="s">
+        <v>358</v>
+      </c>
+      <c r="F71" t="s">
         <v>360</v>
       </c>
-      <c r="F71" t="s">
-        <v>362</v>
-      </c>
       <c r="G71" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H71" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I71" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J71" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
